--- a/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -638,16 +638,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -670,16 +670,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -830,16 +830,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1278,16 +1278,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1310,16 +1310,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1547,16 +1547,16 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7">
         <v>64</v>
       </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1707,16 +1707,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2401,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2424,16 +2424,16 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7">
         <v>64</v>
       </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2529,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -2584,16 +2584,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2721,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3073,7 +3073,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -3278,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3301,16 +3301,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="C7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D7">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -3365,16 +3365,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -3397,16 +3397,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -3461,16 +3461,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3589,16 +3589,16 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
         <v>9</v>
       </c>
-      <c r="C16">
-        <v>6</v>
-      </c>
       <c r="D16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -3749,16 +3749,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -4123,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -4155,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4178,16 +4178,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -4242,16 +4242,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
       <c r="D9">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -4274,16 +4274,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C10">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D10">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -4338,16 +4338,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4466,16 +4466,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4626,16 +4626,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C21">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D21">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5000,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5032,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5055,16 +5055,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -5128,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5160,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -5224,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5512,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5877,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5909,7 +5909,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5932,16 +5932,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6005,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6037,7 +6037,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -6101,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -6754,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6809,16 +6809,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6914,7 +6914,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6978,7 +6978,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7266,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -7426,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -7458,7 +7458,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -7631,7 +7631,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -7663,7 +7663,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7686,16 +7686,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -7759,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7791,7 +7791,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -7855,7 +7855,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8335,7 +8335,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -8508,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -8531,16 +8531,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -8563,16 +8563,16 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>93</v>
+      </c>
+      <c r="C7">
         <v>64</v>
       </c>
-      <c r="C7">
-        <v>41</v>
-      </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -8636,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -8668,7 +8668,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -8723,16 +8723,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9020,7 +9020,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -9171,16 +9171,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -9203,16 +9203,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -9289,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -9385,7 +9385,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -9417,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -9440,16 +9440,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -9513,7 +9513,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -9545,7 +9545,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -9609,7 +9609,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9728,7 +9728,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -9737,7 +9737,7 @@
         <v>29</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9897,7 +9897,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -10057,7 +10057,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -10089,7 +10089,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -10166,7 +10166,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -10262,7 +10262,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -10294,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -10317,16 +10317,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>292</v>
@@ -10390,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -10422,7 +10422,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -10486,7 +10486,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>185</v>
@@ -10614,7 +10614,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -10774,7 +10774,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -10934,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -10966,7 +10966,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>115</v>
@@ -11034,16 +11034,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -11130,16 +11130,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C5">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -11171,7 +11171,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -11194,16 +11194,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -11258,16 +11258,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C9">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D9">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -11290,16 +11290,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C10">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -11354,16 +11354,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -11482,16 +11482,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C16">
         <v>45</v>
       </c>
       <c r="D16">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -11642,16 +11642,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C21">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D21">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11843,7 +11843,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -11911,16 +11911,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -12007,16 +12007,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C5">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D5">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -12048,7 +12048,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -12071,16 +12071,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D7">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -12135,16 +12135,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C9">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D9">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -12167,16 +12167,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C10">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -12231,16 +12231,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -12359,16 +12359,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C16">
         <v>51</v>
       </c>
       <c r="D16">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -12519,16 +12519,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C21">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D21">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -12893,7 +12893,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -12925,7 +12925,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12948,16 +12948,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -13021,7 +13021,7 @@
         <v>61</v>
       </c>
       <c r="E9">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -13053,7 +13053,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -13117,7 +13117,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -13245,7 +13245,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13597,7 +13597,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="G27">
         <v>7</v>

--- a/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -638,16 +638,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -670,16 +670,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -839,7 +839,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1278,16 +1278,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1310,16 +1310,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1547,16 +1547,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1716,7 +1716,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2401,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2424,16 +2424,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2529,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -2593,7 +2593,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2721,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3073,7 +3073,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -3278,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3301,16 +3301,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="C7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="D7">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -3365,16 +3365,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -3397,16 +3397,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -3470,7 +3470,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3589,16 +3589,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -3749,16 +3749,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4027,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -4123,7 +4123,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -4155,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4178,16 +4178,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -4242,16 +4242,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C9">
         <v>36</v>
       </c>
       <c r="D9">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -4274,16 +4274,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C10">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D10">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -4347,7 +4347,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4466,16 +4466,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4626,16 +4626,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C21">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D21">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5000,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5032,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5055,16 +5055,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -5128,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5160,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -5224,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5512,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5877,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5909,7 +5909,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5932,16 +5932,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6005,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6037,7 +6037,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -6101,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -6754,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6809,16 +6809,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6914,7 +6914,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6978,7 +6978,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7266,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -7426,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -7458,7 +7458,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -7631,7 +7631,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -7663,7 +7663,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7686,16 +7686,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -7759,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7791,7 +7791,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -7855,7 +7855,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8335,7 +8335,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -8508,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -8531,16 +8531,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -8563,16 +8563,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -8636,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -8668,7 +8668,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -8732,7 +8732,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9020,7 +9020,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -9171,16 +9171,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -9203,16 +9203,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -9289,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -9385,7 +9385,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -9417,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -9440,16 +9440,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -9513,7 +9513,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -9545,7 +9545,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -9609,7 +9609,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9728,7 +9728,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>29</v>
@@ -9737,7 +9737,7 @@
         <v>29</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9897,7 +9897,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -10057,7 +10057,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -10089,7 +10089,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -10166,7 +10166,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -10262,7 +10262,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -10294,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -10317,16 +10317,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>292</v>
@@ -10390,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -10422,7 +10422,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -10486,7 +10486,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>185</v>
@@ -10614,7 +10614,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -10774,7 +10774,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -10934,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -10966,7 +10966,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>115</v>
@@ -11034,16 +11034,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>30</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -11130,16 +11130,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -11171,7 +11171,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -11194,16 +11194,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C7">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -11258,16 +11258,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C9">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D9">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -11290,16 +11290,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C10">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D10">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -11354,16 +11354,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -11482,16 +11482,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C16">
         <v>45</v>
       </c>
       <c r="D16">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -11642,16 +11642,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C21">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D21">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11843,7 +11843,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -11911,16 +11911,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>28</v>
       </c>
       <c r="D2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -12007,16 +12007,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -12048,7 +12048,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -12071,16 +12071,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="C7">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D7">
-        <v>129</v>
+        <v>213</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -12135,16 +12135,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C9">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D9">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -12167,16 +12167,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C10">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D10">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -12231,16 +12231,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -12359,16 +12359,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C16">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -12519,16 +12519,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C21">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D21">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -12797,7 +12797,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -12893,7 +12893,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -12925,7 +12925,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12948,16 +12948,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -13021,7 +13021,7 @@
         <v>61</v>
       </c>
       <c r="E9">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -13053,7 +13053,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -13117,7 +13117,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -13245,7 +13245,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13405,7 +13405,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13597,7 +13597,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G27">
         <v>7</v>

--- a/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -7529,7 +7529,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -7625,7 +7625,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -7654,13 +7654,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>293</v>
@@ -7785,7 +7785,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -7974,13 +7974,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16">
         <v>333</v>
@@ -8137,7 +8137,7 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -8198,13 +8198,13 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>279</v>

--- a/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -519,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -647,7 +647,7 @@
         <v>95</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -679,7 +679,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -743,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -839,7 +839,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -967,7 +967,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1127,7 +1127,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1191,7 +1191,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1287,7 +1287,7 @@
         <v>83</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1319,7 +1319,7 @@
         <v>155</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -1396,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1524,7 +1524,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1556,7 +1556,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1652,7 +1652,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1716,7 +1716,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2068,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2164,7 +2164,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2196,7 +2196,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2369,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2401,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2433,7 +2433,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2529,7 +2529,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -2593,7 +2593,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2721,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3073,7 +3073,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3150,7 +3150,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -3246,7 +3246,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -3278,7 +3278,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3301,16 +3301,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="C7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -3365,16 +3365,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -3397,16 +3397,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -3470,7 +3470,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3589,16 +3589,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -3749,16 +3749,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="C21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -3813,16 +3813,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>85</v>
@@ -3918,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3950,7 +3950,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4021,13 +4021,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -4117,13 +4117,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -4155,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4178,16 +4178,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -4242,16 +4242,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -4274,16 +4274,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -4347,7 +4347,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4466,16 +4466,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4626,16 +4626,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -4690,16 +4690,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>85</v>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4904,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5000,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5032,7 +5032,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5064,7 +5064,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -5128,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5160,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -5224,7 +5224,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5352,7 +5352,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5512,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -5576,7 +5576,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -5672,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5704,7 +5704,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5877,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5909,7 +5909,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5941,7 +5941,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6005,7 +6005,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6037,7 +6037,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -6101,7 +6101,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6229,7 +6229,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6389,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6453,7 +6453,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -6549,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6581,7 +6581,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6658,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -6754,7 +6754,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6786,7 +6786,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6818,7 +6818,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6882,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6914,7 +6914,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6978,7 +6978,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7106,7 +7106,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7266,7 +7266,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -7330,7 +7330,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -7426,7 +7426,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -7458,7 +7458,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -7535,7 +7535,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -7631,7 +7631,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -7663,7 +7663,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7695,7 +7695,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -7759,7 +7759,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7791,7 +7791,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -7855,7 +7855,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7983,7 +7983,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8143,7 +8143,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -8207,7 +8207,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -8303,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8335,7 +8335,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -8412,7 +8412,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -8508,7 +8508,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -8540,7 +8540,7 @@
         <v>95</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -8572,7 +8572,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -8636,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -8668,7 +8668,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -8732,7 +8732,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8860,7 +8860,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9020,7 +9020,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -9084,7 +9084,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -9180,7 +9180,7 @@
         <v>83</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -9212,7 +9212,7 @@
         <v>155</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -9289,7 +9289,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -9385,7 +9385,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -9417,7 +9417,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -9449,7 +9449,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -9513,7 +9513,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -9545,7 +9545,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -9609,7 +9609,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9737,7 +9737,7 @@
         <v>29</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9897,7 +9897,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -9961,7 +9961,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -10057,7 +10057,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -10089,7 +10089,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -10166,7 +10166,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -10262,7 +10262,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -10294,7 +10294,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -10326,7 +10326,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>292</v>
@@ -10390,7 +10390,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -10422,7 +10422,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -10486,7 +10486,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>185</v>
@@ -10614,7 +10614,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -10774,7 +10774,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -10838,7 +10838,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -10934,7 +10934,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -10966,7 +10966,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>115</v>
@@ -11034,16 +11034,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -11130,16 +11130,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -11171,7 +11171,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -11194,16 +11194,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -11258,16 +11258,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -11290,16 +11290,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>267</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -11354,16 +11354,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -11482,16 +11482,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -11642,16 +11642,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -11706,16 +11706,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -11811,7 +11811,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11843,7 +11843,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -11911,16 +11911,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -12007,16 +12007,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -12048,7 +12048,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -12071,16 +12071,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -12135,16 +12135,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -12167,16 +12167,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -12231,16 +12231,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -12359,16 +12359,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -12519,16 +12519,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -12583,16 +12583,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -12688,7 +12688,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12720,7 +12720,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -12791,13 +12791,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -12887,13 +12887,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -12925,7 +12925,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12957,7 +12957,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -13012,16 +13012,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -13047,13 +13047,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -13117,7 +13117,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -13245,7 +13245,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13399,13 +13399,13 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -13460,16 +13460,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -13565,7 +13565,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13597,7 +13597,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>

--- a/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="36">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -3301,13 +3303,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>210</v>
@@ -3365,13 +3367,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -3397,13 +3399,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>77</v>
@@ -3589,13 +3591,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="E16">
         <v>225</v>
@@ -3749,13 +3751,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>60</v>
@@ -3819,7 +3821,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -6604,6 +6606,1760 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>396</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>449</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>425</v>
+      </c>
+      <c r="L4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>396</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>389</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>210</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="G7">
+        <v>292</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>427</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>449</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>396</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>396</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>449</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>140</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>215</v>
+      </c>
+      <c r="G12">
+        <v>185</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>396</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>449</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>449</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>449</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>374</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>449</v>
+      </c>
+      <c r="L17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>449</v>
+      </c>
+      <c r="L18">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>449</v>
+      </c>
+      <c r="L19">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>449</v>
+      </c>
+      <c r="L20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>396</v>
+      </c>
+      <c r="L21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>449</v>
+      </c>
+      <c r="L22">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>396</v>
+      </c>
+      <c r="L23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>449</v>
+      </c>
+      <c r="L24">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>449</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>147</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>396</v>
+      </c>
+      <c r="L26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>222</v>
+      </c>
+      <c r="G27">
+        <v>115</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>396</v>
+      </c>
+      <c r="L27">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>218</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>286</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>449</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>425</v>
+      </c>
+      <c r="L4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>357</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>439</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="G7">
+        <v>305</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>449</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>379</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>392</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>439</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>392</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>449</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>215</v>
+      </c>
+      <c r="G12">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>411</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>449</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>449</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>366</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>449</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>132</v>
+      </c>
+      <c r="E16">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>279</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>208</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>449</v>
+      </c>
+      <c r="L17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>411</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>449</v>
+      </c>
+      <c r="L18">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>329</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>449</v>
+      </c>
+      <c r="L19">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>449</v>
+      </c>
+      <c r="L20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>405</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>439</v>
+      </c>
+      <c r="L21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>449</v>
+      </c>
+      <c r="L22">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>382</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>330</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>449</v>
+      </c>
+      <c r="L24">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>449</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>147</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>222</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L27"/>
@@ -9280,13 +11036,13 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>67</v>
@@ -9376,13 +11132,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>77</v>
@@ -9408,13 +11164,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>127</v>
@@ -9440,13 +11196,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>210</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="E7">
         <v>210</v>
@@ -9504,13 +11260,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -9536,13 +11292,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>77</v>
@@ -9600,13 +11356,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>215</v>
@@ -9728,13 +11484,13 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>225</v>
@@ -9888,13 +11644,13 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>60</v>
@@ -10048,13 +11804,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>147</v>
@@ -10080,13 +11836,13 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>222</v>

--- a/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -512,16 +512,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -544,16 +544,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -576,16 +576,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>136</v>
@@ -608,16 +608,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -640,16 +640,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -672,16 +672,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -704,16 +704,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -739,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -768,16 +768,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -800,16 +800,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -832,16 +832,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -864,16 +864,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -905,7 +905,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -928,16 +928,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>208</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>238</v>
@@ -960,16 +960,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -992,16 +992,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -1024,16 +1024,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -1056,16 +1056,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -1088,16 +1088,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1120,16 +1120,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1152,16 +1152,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -1184,16 +1184,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1216,16 +1216,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>104</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>126</v>
@@ -1248,16 +1248,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -1280,16 +1280,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1312,16 +1312,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -1389,16 +1389,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -1421,16 +1421,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1453,16 +1453,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -1485,16 +1485,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1517,16 +1517,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1549,16 +1549,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -1581,16 +1581,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1613,16 +1613,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1645,16 +1645,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1677,16 +1677,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -1709,16 +1709,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1741,16 +1741,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>18</v>
@@ -1782,7 +1782,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -1805,16 +1805,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -1837,16 +1837,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1869,16 +1869,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -1901,16 +1901,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>18</v>
@@ -1933,16 +1933,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -1965,16 +1965,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1997,16 +1997,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2029,16 +2029,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2061,16 +2061,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2093,16 +2093,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -2125,16 +2125,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2157,16 +2157,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2189,16 +2189,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2266,16 +2266,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2298,16 +2298,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2330,16 +2330,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -2362,16 +2362,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2394,16 +2394,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2426,16 +2426,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -2458,16 +2458,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2490,16 +2490,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2522,16 +2522,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -2554,16 +2554,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -2586,16 +2586,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2618,16 +2618,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>18</v>
@@ -2659,7 +2659,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -2682,16 +2682,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>15</v>
@@ -2714,16 +2714,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2746,16 +2746,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -2778,16 +2778,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>22</v>
@@ -2810,16 +2810,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -2842,16 +2842,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2874,16 +2874,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2906,16 +2906,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2938,16 +2938,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -2970,16 +2970,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -3002,16 +3002,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3034,16 +3034,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3066,16 +3066,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3143,16 +3143,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -3175,16 +3175,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -3207,16 +3207,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -3239,16 +3239,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -3271,16 +3271,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3303,16 +3303,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>327</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -3335,16 +3335,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -3367,16 +3367,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>440</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -3399,16 +3399,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>341</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>341</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>341</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -3431,16 +3431,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>296</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>296</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>339</v>
@@ -3463,16 +3463,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3495,16 +3495,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -3536,7 +3536,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -3559,16 +3559,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>19</v>
@@ -3591,16 +3591,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -3623,16 +3623,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -3655,16 +3655,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -3687,16 +3687,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -3719,16 +3719,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -3751,16 +3751,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>339</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>339</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -3783,16 +3783,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -3815,16 +3815,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>443</v>
       </c>
       <c r="C23">
-        <v>50</v>
+        <v>443</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>443</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>85</v>
@@ -3847,16 +3847,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>24</v>
@@ -3879,16 +3879,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -3911,16 +3911,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3943,16 +3943,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4020,16 +4020,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -4052,16 +4052,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4084,16 +4084,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -4116,16 +4116,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>207</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -4148,16 +4148,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4180,16 +4180,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>308</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -4212,16 +4212,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -4244,16 +4244,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>421</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>421</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -4276,16 +4276,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>314</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -4308,16 +4308,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>296</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>296</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>296</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>339</v>
@@ -4340,16 +4340,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4372,16 +4372,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -4413,7 +4413,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -4436,16 +4436,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>19</v>
@@ -4468,16 +4468,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4500,16 +4500,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -4532,16 +4532,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -4564,16 +4564,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -4596,16 +4596,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -4628,16 +4628,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="C21">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>312</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -4660,16 +4660,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -4692,16 +4692,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>424</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>424</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>85</v>
@@ -4724,16 +4724,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>24</v>
@@ -4756,16 +4756,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4788,16 +4788,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4820,16 +4820,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4897,16 +4897,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -4929,16 +4929,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -4961,16 +4961,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -4993,16 +4993,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5025,16 +5025,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5057,16 +5057,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C7">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -5089,16 +5089,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5121,16 +5121,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5153,16 +5153,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -5185,16 +5185,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -5217,16 +5217,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5249,16 +5249,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>16</v>
@@ -5290,7 +5290,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -5313,16 +5313,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -5348,13 +5348,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5377,16 +5377,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -5409,16 +5409,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -5441,16 +5441,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -5473,16 +5473,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -5505,16 +5505,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -5537,16 +5537,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -5569,16 +5569,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -5601,16 +5601,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>17</v>
@@ -5633,16 +5633,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -5665,16 +5665,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5697,16 +5697,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5774,16 +5774,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5806,16 +5806,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -5838,16 +5838,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -5870,16 +5870,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5902,16 +5902,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5934,16 +5934,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -5966,16 +5966,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -6001,13 +6001,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6030,16 +6030,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -6062,16 +6062,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -6094,16 +6094,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6126,16 +6126,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -6167,7 +6167,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -6190,16 +6190,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -6222,16 +6222,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6254,16 +6254,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -6286,16 +6286,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -6318,16 +6318,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -6350,16 +6350,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -6382,16 +6382,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6414,16 +6414,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -6446,16 +6446,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -6478,16 +6478,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -6510,16 +6510,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6542,16 +6542,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6574,16 +6574,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6651,16 +6651,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -6683,16 +6683,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>28</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -6715,16 +6715,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -6747,16 +6747,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -6779,16 +6779,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6811,16 +6811,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>292</v>
@@ -6843,16 +6843,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -6875,16 +6875,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -6907,16 +6907,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -6939,16 +6939,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -6971,16 +6971,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>185</v>
@@ -7003,16 +7003,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -7044,7 +7044,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -7067,16 +7067,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -7099,16 +7099,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -7131,16 +7131,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -7163,16 +7163,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -7195,16 +7195,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -7227,16 +7227,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -7259,16 +7259,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -7291,16 +7291,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -7323,16 +7323,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -7355,16 +7355,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>17</v>
@@ -7387,16 +7387,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>27</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -7419,16 +7419,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -7451,16 +7451,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>115</v>
@@ -7528,16 +7528,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -7560,16 +7560,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>257</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>286</v>
@@ -7592,16 +7592,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -7624,16 +7624,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>314</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -7656,16 +7656,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>398</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>398</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>398</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -7688,16 +7688,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -7720,16 +7720,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -7752,16 +7752,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>440</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -7784,16 +7784,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>359</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -7816,16 +7816,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>359</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>359</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>359</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>392</v>
@@ -7848,16 +7848,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -7880,16 +7880,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>411</v>
@@ -7921,7 +7921,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -7944,16 +7944,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>366</v>
@@ -7976,16 +7976,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="D16">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -8008,16 +8008,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>208</v>
@@ -8040,16 +8040,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>411</v>
@@ -8072,16 +8072,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>329</v>
@@ -8104,16 +8104,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>33</v>
@@ -8136,16 +8136,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -8168,16 +8168,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -8200,16 +8200,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>446</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>446</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -8232,16 +8232,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>330</v>
@@ -8264,16 +8264,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -8296,16 +8296,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8328,16 +8328,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -8405,16 +8405,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -8437,16 +8437,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -8469,16 +8469,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -8501,16 +8501,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -8533,16 +8533,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -8565,16 +8565,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -8597,16 +8597,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -8632,13 +8632,13 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -8661,16 +8661,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -8693,16 +8693,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -8725,16 +8725,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8757,16 +8757,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>16</v>
@@ -8798,7 +8798,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -8821,16 +8821,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -8856,13 +8856,13 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -8885,16 +8885,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -8917,16 +8917,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>16</v>
@@ -8949,16 +8949,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -8981,16 +8981,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -9013,16 +9013,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -9045,16 +9045,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -9077,16 +9077,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -9109,16 +9109,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>17</v>
@@ -9141,16 +9141,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -9173,16 +9173,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -9205,16 +9205,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -9282,16 +9282,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -9314,16 +9314,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -9346,16 +9346,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -9378,16 +9378,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -9419,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -9442,16 +9442,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -9474,16 +9474,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -9506,16 +9506,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -9538,16 +9538,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -9570,16 +9570,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -9602,16 +9602,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9634,16 +9634,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -9675,7 +9675,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -9698,16 +9698,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -9730,16 +9730,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -9762,16 +9762,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -9794,16 +9794,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -9826,16 +9826,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -9858,16 +9858,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -9890,16 +9890,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -9922,16 +9922,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -9954,16 +9954,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -9986,16 +9986,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -10018,16 +10018,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10050,16 +10050,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -10082,16 +10082,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -10159,16 +10159,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -10191,16 +10191,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -10223,16 +10223,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>133</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>133</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>133</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>136</v>
@@ -10255,16 +10255,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -10287,16 +10287,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -10319,16 +10319,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -10351,16 +10351,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -10383,16 +10383,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -10415,16 +10415,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -10447,16 +10447,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>11</v>
@@ -10479,16 +10479,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -10511,16 +10511,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -10552,7 +10552,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -10575,16 +10575,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>238</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>238</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>238</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>238</v>
@@ -10607,16 +10607,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -10639,16 +10639,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -10671,16 +10671,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>24</v>
@@ -10703,16 +10703,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>4</v>
@@ -10735,16 +10735,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -10767,16 +10767,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -10799,16 +10799,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -10831,16 +10831,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -10863,16 +10863,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>126</v>
@@ -10895,16 +10895,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -10927,16 +10927,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -10959,16 +10959,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>155</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -11036,16 +11036,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -11068,16 +11068,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -11100,16 +11100,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -11132,16 +11132,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -11164,16 +11164,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -11196,16 +11196,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -11228,16 +11228,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -11260,16 +11260,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -11292,16 +11292,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -11324,16 +11324,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -11356,16 +11356,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -11388,16 +11388,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -11429,7 +11429,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -11452,16 +11452,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -11484,16 +11484,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -11516,16 +11516,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>7</v>
@@ -11548,16 +11548,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -11580,16 +11580,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -11612,16 +11612,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -11644,16 +11644,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -11676,16 +11676,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -11708,16 +11708,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -11740,16 +11740,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>17</v>
@@ -11772,16 +11772,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -11804,16 +11804,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11836,16 +11836,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -11913,16 +11913,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -11945,16 +11945,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>17</v>
@@ -11977,16 +11977,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -12009,16 +12009,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -12041,16 +12041,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -12073,16 +12073,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>210</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>292</v>
@@ -12105,16 +12105,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -12137,16 +12137,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -12169,16 +12169,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -12201,16 +12201,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -12233,16 +12233,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>185</v>
@@ -12265,16 +12265,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>17</v>
@@ -12306,7 +12306,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -12329,16 +12329,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -12361,16 +12361,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -12393,16 +12393,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -12425,16 +12425,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -12457,16 +12457,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>17</v>
@@ -12489,16 +12489,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>6</v>
@@ -12521,16 +12521,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -12553,16 +12553,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -12585,16 +12585,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -12617,16 +12617,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>17</v>
@@ -12649,16 +12649,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>17</v>
@@ -12681,16 +12681,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -12713,16 +12713,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>115</v>
@@ -12790,16 +12790,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>230</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -12822,16 +12822,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>239</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>239</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>239</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>286</v>
@@ -12854,16 +12854,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -12886,16 +12886,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -12918,16 +12918,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -12950,16 +12950,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>333</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -12982,16 +12982,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -13014,16 +13014,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -13046,16 +13046,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>359</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>359</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -13078,16 +13078,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>359</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>359</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>359</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>392</v>
@@ -13110,16 +13110,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -13142,16 +13142,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>411</v>
@@ -13183,7 +13183,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -13206,16 +13206,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>323</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>366</v>
@@ -13238,16 +13238,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="D16">
-        <v>132</v>
+        <v>323</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -13270,16 +13270,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>208</v>
@@ -13302,16 +13302,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>411</v>
@@ -13334,16 +13334,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>289</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>289</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>289</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>329</v>
@@ -13366,16 +13366,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>33</v>
@@ -13398,16 +13398,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -13430,16 +13430,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -13462,16 +13462,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>446</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>446</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -13494,16 +13494,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>330</v>
@@ -13526,16 +13526,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -13558,16 +13558,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>269</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13590,16 +13590,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>178</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -13667,16 +13667,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>230</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>230</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -13699,16 +13699,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>230</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>230</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>230</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>286</v>
@@ -13731,16 +13731,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -13763,16 +13763,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>314</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -13795,16 +13795,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>400</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -13827,16 +13827,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>333</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>333</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -13859,16 +13859,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>22</v>
@@ -13891,16 +13891,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>440</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -13923,16 +13923,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="C10">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>355</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -13955,16 +13955,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>361</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>361</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>361</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>392</v>
@@ -13987,16 +13987,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>222</v>
       </c>
       <c r="D12">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -14019,16 +14019,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>411</v>
@@ -14060,7 +14060,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -14083,16 +14083,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>322</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>322</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>322</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>366</v>
@@ -14115,16 +14115,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="D16">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -14147,16 +14147,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>186</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>208</v>
@@ -14179,16 +14179,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>381</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>411</v>
@@ -14211,16 +14211,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>329</v>
@@ -14243,16 +14243,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>33</v>
@@ -14275,16 +14275,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>381</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>381</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -14307,16 +14307,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -14339,16 +14339,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>446</v>
       </c>
       <c r="C23">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>446</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -14371,16 +14371,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>294</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>330</v>
@@ -14403,16 +14403,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -14435,16 +14435,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>280</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -14467,16 +14467,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -14544,16 +14544,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -14576,16 +14576,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -14608,16 +14608,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -14640,16 +14640,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -14672,16 +14672,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>127</v>
+        <v>449</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -14704,16 +14704,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -14736,16 +14736,16 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -14768,16 +14768,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -14800,16 +14800,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E10">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -14832,16 +14832,16 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -14864,16 +14864,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>215</v>
+        <v>449</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -14896,16 +14896,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G13">
         <v>14</v>
@@ -14937,7 +14937,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G14">
         <v>-1</v>
@@ -14960,16 +14960,16 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G15">
         <v>7</v>
@@ -14995,13 +14995,13 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>225</v>
+        <v>449</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -15024,16 +15024,16 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G17">
         <v>5</v>
@@ -15056,16 +15056,16 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G18">
         <v>14</v>
@@ -15088,16 +15088,16 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -15120,16 +15120,16 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -15152,16 +15152,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>449</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -15184,16 +15184,16 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -15216,16 +15216,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -15248,16 +15248,16 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G24">
         <v>9</v>
@@ -15280,16 +15280,16 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -15312,16 +15312,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -15344,16 +15344,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>222</v>
+        <v>449</v>
       </c>
       <c r="G27">
         <v>7</v>
